--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationstatement-card.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationstatement-card.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$92</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3334" uniqueCount="508">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -285,7 +285,9 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-dosage-medstat:If one dosage element is present, it should not have a sequence number. 
+              If more than one dosage element is present, the base entry has the sequence number 1. {(dosage.count() &gt; 1 implies dosage.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage') and sequence = 1).exists()) 
+         and (dosage.count() = 1 implies dosage.single().sequence.exists().not())}split-dosage-unit-must-match-base-dosage:The unit for doseAndRate of different dosages (split dosage) belonging to the same statement/request/dispense must match. {(dosage.count() &gt; 1) implies dosage.doseAndRate.dose.ofType(Quantity).code.union(dosage.doseAndRate.dose.ofType(Range).low.code).union(dosage.doseAndRate.dose.ofType(Range).high.code).union(dosage.doseAndRate.rate.numerator.code).count() = 1}</t>
   </si>
   <si>
     <t>Event</t>
@@ -437,7 +439,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -585,6 +587,9 @@
     <t>MedicationStatement.extension</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -604,13 +609,160 @@
 </t>
   </si>
   <si>
-    <t>Whether substitution is allowed or not</t>
+    <t>Whether the dispenser can substitute the prescribed medicine/package by another that is deemed equivalent, for medical or logistical reasons. By default, substitution is authorized.</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>MedicationStatement.extension:substitution.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:substitution.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:substitution.url</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-substitution</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:substitution.value[x]</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Whether substitution is allowed or not</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-emed-epr/ValueSet/ch-emed-epr-substance-admin-substitution-code</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:substitution.value[x].id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.value[x].id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:substitution.value[x].extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.value[x].extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:substitution.value[x].coding</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.value[x].coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://terminology.hl7.org/CodeSystem/v3-substanceAdminSubstitution"/&gt;
+  &lt;code value="N"/&gt;
+  &lt;display value="none"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:substitution.value[x].text</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.value[x].text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>MedicationStatement.extension:treatmentPlan</t>
   </si>
   <si>
@@ -643,40 +795,16 @@
     <t>MedicationStatement.extension:authorDocument.id</t>
   </si>
   <si>
-    <t>MedicationStatement.extension.id</t>
-  </si>
-  <si>
     <t>MedicationStatement.extension:authorDocument.extension</t>
   </si>
   <si>
-    <t>MedicationStatement.extension.extension</t>
-  </si>
-  <si>
     <t>MedicationStatement.extension:authorDocument.url</t>
   </si>
   <si>
-    <t>MedicationStatement.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
     <t>http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-author</t>
   </si>
   <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
     <t>MedicationStatement.extension:authorDocument.value[x]</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
@@ -686,9 +814,6 @@
     <t>Value of extension</t>
   </si>
   <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
     <t xml:space="preserve">type:$this}
 </t>
   </si>
@@ -696,9 +821,6 @@
     <t>closed</t>
   </si>
   <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
     <t>MedicationStatement.extension:authorDocument.value[x]:valueReference</t>
   </si>
   <si>
@@ -715,26 +837,7 @@
     <t>MedicationStatement.extension:authorDocument.value[x]:valueReference.id</t>
   </si>
   <si>
-    <t>MedicationStatement.extension.value[x].id</t>
-  </si>
-  <si>
     <t>MedicationStatement.extension:authorDocument.value[x]:valueReference.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension.value[x].extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>MedicationStatement.extension:authorDocument.value[x]:valueReference.extension:time</t>
@@ -846,6 +949,19 @@
     <t>Reference.display</t>
   </si>
   <si>
+    <t>MedicationStatement.extension:lastConsideredDocument</t>
+  </si>
+  <si>
+    <t>lastConsideredDocument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-last-considered-document}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
     <t>MedicationStatement.extension:prescription</t>
   </si>
   <si>
@@ -910,9 +1026,6 @@
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
@@ -926,10 +1039,6 @@
   </si>
   <si>
     <t>MedicationStatement.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
@@ -1276,10 +1385,6 @@
     <t>MedicationStatement.informationSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|RelatedPerson)
-</t>
-  </si>
-  <si>
     <t>The last medical author, (see 'Document PMLC' and 'Guidance - Different Authors')</t>
   </si>
   <si>
@@ -1360,49 +1465,10 @@
     <t>MedicationStatement.reasonCode.coding</t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
     <t>MedicationStatement.reasonCode.text</t>
   </si>
   <si>
     <t>Plain text representation of the treatment reason(s)</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>MedicationStatement.reasonReference</t>
@@ -1506,14 +1572,14 @@
     <t>MedicationStatement.dosage</t>
   </si>
   <si>
-    <t xml:space="preserve">Dosage
+    <t xml:space="preserve">Dosage {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-dosage}
 </t>
   </si>
   <si>
     <t>How the medication should be taken</t>
   </si>
   <si>
-    <t>Indicates how the medication is/was or should be taken by the patient.</t>
+    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
   </si>
   <si>
     <t>The dates included in the dosage on a Medication Statement reflect the dates for a given dose.  For example, "from November 1, 2016 to November 3, 2016, take one tablet daily and from November 4, 2016 to November 7, 2016, take two tablets daily."  It is expected that this specificity may only be populated where the patient brings in their labeled container or where the Medication Statement is derived from a MedicationRequest.</t>
@@ -1523,7 +1589,7 @@
 </t>
   </si>
   <si>
-    <t>refer dosageInstruction mapping</t>
+    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
   </si>
   <si>
     <t>MedicationStatement.dosage:baseEntry</t>
@@ -1536,19 +1602,13 @@
 </t>
   </si>
   <si>
-    <t>CH EMED Dosage (MedicationStatement / MedicationDispense)</t>
-  </si>
-  <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>Base entry of the dosage instruction</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ch-dosage-4:For split dosage timing event and dose/rate are required {sequence.exists() implies (timing.repeat.when.exists() and doseAndRate.dose.exists())}</t>
   </si>
   <si>
-    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
-  </si>
-  <si>
     <t>MedicationStatement.dosage:additionalEntry</t>
   </si>
   <si>
@@ -1559,7 +1619,7 @@
 </t>
   </si>
   <si>
-    <t>CH EMED Dosage Split (MedicationStatement / MedicationDispense / MedicationRequest)</t>
+    <t>Additional entry of the dosage instruction</t>
   </si>
 </sst>
 </file>
@@ -1881,7 +1941,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN83"/>
+  <dimension ref="A1:AN92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1890,45 +1950,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="79.921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.97265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.63671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="83.82421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="47.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.21484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="223.88671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="218.78125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="221.62109375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="119.71875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.78515625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="124.08984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="81.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="38.25" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="136.39453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="43.81640625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="140.73046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="45.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3770,7 +3830,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>80</v>
@@ -3788,10 +3848,10 @@
         <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3840,7 +3900,7 @@
         <v>114</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3869,13 +3929,13 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>177</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>78</v>
@@ -3897,13 +3957,13 @@
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3954,7 +4014,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3963,7 +4023,7 @@
         <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>116</v>
@@ -3972,7 +4032,7 @@
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -3983,20 +4043,18 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>89</v>
@@ -4011,13 +4069,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4068,25 +4126,25 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
@@ -4100,11 +4158,9 @@
         <v>190</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C20" t="s" s="2">
         <v>191</v>
       </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4113,7 +4169,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -4125,17 +4181,15 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4172,19 +4226,19 @@
         <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4213,10 +4267,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4224,7 +4278,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>89</v>
@@ -4239,22 +4293,24 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>78</v>
@@ -4296,10 +4352,10 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>89</v>
@@ -4314,7 +4370,7 @@
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -4325,10 +4381,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4336,10 +4392,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -4351,13 +4407,13 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4384,49 +4440,47 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
@@ -4437,10 +4491,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4448,7 +4502,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>89</v>
@@ -4463,24 +4517,22 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>78</v>
@@ -4522,10 +4574,10 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>89</v>
@@ -4540,7 +4592,7 @@
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4551,21 +4603,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4577,15 +4629,17 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4622,35 +4676,37 @@
         <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AC24" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="AD24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>212</v>
+        <v>114</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>213</v>
+        <v>115</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4661,23 +4717,21 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4686,19 +4740,23 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4707,7 +4765,7 @@
         <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>78</v>
@@ -4746,13 +4804,13 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
@@ -4764,21 +4822,21 @@
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4798,19 +4856,23 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>104</v>
+        <v>227</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4858,7 +4920,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4870,38 +4932,40 @@
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>107</v>
+        <v>232</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="D27" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -4913,17 +4977,15 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>109</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -4960,19 +5022,19 @@
         <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4990,7 +5052,7 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -5001,13 +5063,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>78</v>
@@ -5029,15 +5091,17 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5086,7 +5150,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5104,7 +5168,7 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -5115,10 +5179,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5126,7 +5190,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>89</v>
@@ -5138,20 +5202,18 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -5200,7 +5262,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>236</v>
+        <v>106</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5209,16 +5271,16 @@
         <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -5229,10 +5291,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5243,7 +5305,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -5252,20 +5314,18 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -5290,49 +5350,49 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>245</v>
+        <v>115</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -5343,10 +5403,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5354,7 +5414,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>89</v>
@@ -5366,19 +5426,19 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>125</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5386,7 +5446,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>78</v>
@@ -5428,10 +5488,10 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>89</v>
@@ -5440,13 +5500,13 @@
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5457,10 +5517,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5468,7 +5528,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>89</v>
@@ -5480,20 +5540,18 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>103</v>
+        <v>248</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5530,19 +5588,17 @@
         <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>259</v>
+        <v>206</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5571,20 +5627,20 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>89</v>
@@ -5599,13 +5655,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5656,25 +5712,25 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5685,10 +5741,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5699,29 +5755,27 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5770,25 +5824,25 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>266</v>
+        <v>106</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5799,21 +5853,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5822,19 +5876,19 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>248</v>
+        <v>109</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>268</v>
+        <v>212</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>270</v>
+        <v>214</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5872,19 +5926,19 @@
         <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>267</v>
+        <v>115</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5896,16 +5950,16 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>272</v>
+        <v>107</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -5913,12 +5967,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>78</v>
       </c>
@@ -5939,13 +5995,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>103</v>
+        <v>260</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>104</v>
+        <v>261</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>105</v>
+        <v>262</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5996,25 +6052,25 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -6025,10 +6081,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6036,10 +6092,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6048,18 +6104,20 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>110</v>
+        <v>265</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6096,37 +6154,37 @@
         <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>115</v>
+        <v>268</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6137,10 +6195,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6157,26 +6215,24 @@
         <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6200,13 +6256,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>281</v>
+        <v>137</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -6224,7 +6280,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6242,21 +6298,21 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>285</v>
+        <v>176</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6279,20 +6335,18 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>110</v>
+        <v>281</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>111</v>
+        <v>282</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6316,13 +6370,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6340,7 +6394,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6364,15 +6418,15 @@
         <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>293</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6380,7 +6434,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>89</v>
@@ -6395,32 +6449,30 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>299</v>
+        <v>78</v>
       </c>
       <c r="S40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>78</v>
@@ -6456,7 +6508,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6474,23 +6526,25 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>302</v>
+        <v>176</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6508,20 +6562,18 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>103</v>
+        <v>294</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6534,7 +6586,7 @@
         <v>78</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>78</v>
@@ -6570,41 +6622,43 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>309</v>
+        <v>181</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>310</v>
+        <v>176</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>311</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6622,16 +6676,16 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>110</v>
+        <v>299</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6682,39 +6736,39 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>314</v>
+        <v>181</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>316</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6725,28 +6779,28 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>318</v>
+        <v>109</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>319</v>
+        <v>179</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6796,39 +6850,39 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>322</v>
+        <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>323</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6836,10 +6890,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6851,20 +6905,18 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>111</v>
+        <v>305</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -6912,7 +6964,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6927,13 +6979,13 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -6941,10 +6993,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6955,7 +7007,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6964,21 +7016,19 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>330</v>
+        <v>103</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>331</v>
+        <v>104</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>332</v>
+        <v>105</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>333</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7026,25 +7076,25 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>329</v>
+        <v>106</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>335</v>
+        <v>107</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -7055,10 +7105,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7066,32 +7116,30 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>337</v>
+        <v>110</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7116,52 +7164,52 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>336</v>
+        <v>115</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>342</v>
+        <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>344</v>
+        <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7169,10 +7217,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7183,30 +7231,32 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>287</v>
+        <v>153</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>110</v>
+        <v>313</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>111</v>
+        <v>314</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7230,13 +7280,13 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7254,13 +7304,13 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
@@ -7269,24 +7319,24 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>349</v>
+        <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7309,7 +7359,7 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>287</v>
+        <v>201</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>110</v>
@@ -7317,8 +7367,12 @@
       <c r="M48" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7342,13 +7396,13 @@
         <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>78</v>
@@ -7366,7 +7420,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7384,21 +7438,21 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>355</v>
+        <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7421,30 +7475,32 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>78</v>
+        <v>333</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>78</v>
@@ -7468,20 +7524,22 @@
         <v>78</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AC49" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>89</v>
@@ -7493,40 +7551,38 @@
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>360</v>
+        <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>78</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>78</v>
@@ -7535,16 +7591,16 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>365</v>
+        <v>103</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7558,7 +7614,7 @@
         <v>78</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>78</v>
@@ -7594,10 +7650,10 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>89</v>
@@ -7609,24 +7665,24 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>360</v>
+        <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>78</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7634,7 +7690,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>89</v>
@@ -7649,13 +7705,13 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>369</v>
+        <v>110</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>370</v>
+        <v>111</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7706,10 +7762,10 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>89</v>
@@ -7721,24 +7777,24 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>371</v>
+        <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>373</v>
+        <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>374</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7758,18 +7814,20 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>103</v>
+        <v>352</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>110</v>
+        <v>353</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7818,7 +7876,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>106</v>
+        <v>355</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7830,27 +7888,27 @@
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>107</v>
+        <v>356</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7870,19 +7928,23 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>109</v>
+        <v>359</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>110</v>
+        <v>353</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
@@ -7918,19 +7980,19 @@
         <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>115</v>
+        <v>358</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7942,13 +8004,13 @@
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>78</v>
+        <v>361</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -7959,10 +8021,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7970,10 +8032,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -7985,18 +8047,18 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>103</v>
+        <v>364</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>233</v>
+        <v>365</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8044,25 +8106,25 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>236</v>
+        <v>363</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>78</v>
+        <v>368</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>176</v>
+        <v>369</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -8073,10 +8135,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8084,7 +8146,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>89</v>
@@ -8093,22 +8155,22 @@
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>240</v>
+        <v>371</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>241</v>
+        <v>372</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>242</v>
+        <v>373</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8134,13 +8196,13 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>243</v>
+        <v>374</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>244</v>
+        <v>375</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -8158,10 +8220,10 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>245</v>
+        <v>370</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>89</v>
@@ -8173,13 +8235,13 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>78</v>
+        <v>376</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>176</v>
+        <v>377</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8201,7 +8263,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8210,19 +8272,19 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>249</v>
+        <v>110</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>250</v>
+        <v>111</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>251</v>
+        <v>380</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8248,13 +8310,13 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>78</v>
+        <v>381</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>78</v>
+        <v>382</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8272,13 +8334,13 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>252</v>
+        <v>379</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
@@ -8287,10 +8349,10 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>78</v>
+        <v>383</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>253</v>
+        <v>384</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8301,10 +8363,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8327,17 +8389,15 @@
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>256</v>
+        <v>110</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8362,13 +8422,13 @@
         <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>78</v>
+        <v>386</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>78</v>
+        <v>387</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -8386,7 +8446,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>259</v>
+        <v>385</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8404,10 +8464,10 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>176</v>
+        <v>388</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>78</v>
+        <v>389</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8415,10 +8475,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8426,7 +8486,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>89</v>
@@ -8441,16 +8501,16 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>382</v>
+        <v>248</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>319</v>
+        <v>391</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>111</v>
+        <v>392</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>320</v>
+        <v>393</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8488,22 +8548,20 @@
         <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>89</v>
@@ -8515,13 +8573,13 @@
         <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>78</v>
+        <v>396</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8529,12 +8587,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>78</v>
       </c>
@@ -8546,7 +8606,7 @@
         <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>78</v>
@@ -8555,16 +8615,16 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>111</v>
+        <v>392</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8614,10 +8674,10 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>89</v>
@@ -8629,13 +8689,13 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -8643,10 +8703,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8669,13 +8729,13 @@
         <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8726,10 +8786,10 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>89</v>
@@ -8741,24 +8801,24 @@
         <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>78</v>
+        <v>405</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>78</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8766,7 +8826,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>89</v>
@@ -8781,17 +8841,15 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>399</v>
+        <v>103</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -8840,7 +8898,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>398</v>
+        <v>106</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8852,16 +8910,16 @@
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>403</v>
+        <v>107</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>404</v>
+        <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -8869,10 +8927,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8883,7 +8941,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -8895,13 +8953,13 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8940,37 +8998,37 @@
         <v>78</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -8981,21 +9039,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
@@ -9004,19 +9062,19 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9054,37 +9112,37 @@
         <v>78</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>115</v>
+        <v>268</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9095,10 +9153,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9106,7 +9164,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>89</v>
@@ -9121,16 +9179,16 @@
         <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9156,13 +9214,13 @@
         <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
@@ -9180,7 +9238,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9189,7 +9247,7 @@
         <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>101</v>
@@ -9209,10 +9267,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9235,16 +9293,16 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9270,13 +9328,13 @@
         <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>78</v>
@@ -9294,7 +9352,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9312,7 +9370,7 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>176</v>
+        <v>285</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9323,10 +9381,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9349,16 +9407,16 @@
         <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9408,7 +9466,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9426,7 +9484,7 @@
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -9437,10 +9495,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9463,16 +9521,16 @@
         <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>103</v>
+        <v>416</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>256</v>
+        <v>353</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>257</v>
+        <v>111</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>258</v>
+        <v>354</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9522,7 +9580,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>259</v>
+        <v>415</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9537,10 +9595,10 @@
         <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>78</v>
+        <v>417</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>176</v>
+        <v>418</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
@@ -9551,10 +9609,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9565,7 +9623,7 @@
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
@@ -9574,19 +9632,19 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>319</v>
+        <v>421</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>111</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>320</v>
+        <v>422</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9636,13 +9694,13 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
@@ -9651,13 +9709,13 @@
         <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>78</v>
+        <v>423</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>78</v>
+        <v>425</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -9665,10 +9723,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9676,7 +9734,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>89</v>
@@ -9688,20 +9746,18 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>287</v>
+        <v>427</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -9726,13 +9782,13 @@
         <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>418</v>
+        <v>78</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>419</v>
+        <v>78</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
@@ -9750,13 +9806,13 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
@@ -9765,13 +9821,13 @@
         <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>420</v>
+        <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -9779,10 +9835,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9790,7 +9846,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>89</v>
@@ -9805,15 +9861,17 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>103</v>
+        <v>254</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>104</v>
+        <v>433</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -9862,7 +9920,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>106</v>
+        <v>432</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -9874,16 +9932,16 @@
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>107</v>
+        <v>436</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>78</v>
+        <v>437</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -9891,10 +9949,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9905,7 +9963,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>78</v>
@@ -9917,13 +9975,13 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9962,37 +10020,37 @@
         <v>78</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
@@ -10003,14 +10061,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10026,23 +10084,21 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>426</v>
+        <v>212</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>427</v>
+        <v>213</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10078,19 +10134,19 @@
         <v>78</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>430</v>
+        <v>115</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10102,27 +10158,27 @@
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>431</v>
+        <v>107</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>432</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10136,7 +10192,7 @@
         <v>89</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>78</v>
@@ -10148,17 +10204,15 @@
         <v>103</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>434</v>
+        <v>265</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>435</v>
+        <v>266</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10206,7 +10260,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>438</v>
+        <v>268</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10215,7 +10269,7 @@
         <v>89</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>101</v>
@@ -10224,13 +10278,13 @@
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>439</v>
+        <v>176</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>440</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" hidden="true">
@@ -10249,7 +10303,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10258,19 +10312,19 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>442</v>
+        <v>125</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>111</v>
+        <v>273</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10296,13 +10350,13 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>78</v>
@@ -10320,13 +10374,13 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>441</v>
+        <v>277</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
@@ -10335,13 +10389,13 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>443</v>
+        <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>444</v>
+        <v>176</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>422</v>
+        <v>78</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10349,10 +10403,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10363,7 +10417,7 @@
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
@@ -10372,18 +10426,20 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>446</v>
+        <v>280</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>447</v>
+        <v>281</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -10432,13 +10488,13 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>445</v>
+        <v>284</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
@@ -10447,10 +10503,10 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>450</v>
+        <v>285</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
@@ -10461,10 +10517,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10484,18 +10540,20 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>110</v>
+        <v>288</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -10544,7 +10602,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>106</v>
+        <v>291</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10556,13 +10614,13 @@
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>78</v>
@@ -10573,10 +10631,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10599,15 +10657,17 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>109</v>
+        <v>445</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>110</v>
+        <v>353</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>78</v>
@@ -10644,19 +10704,19 @@
         <v>78</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>115</v>
+        <v>444</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -10668,13 +10728,13 @@
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>78</v>
+        <v>446</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>78</v>
@@ -10685,10 +10745,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10696,10 +10756,10 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
@@ -10708,19 +10768,19 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>454</v>
+        <v>201</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10746,13 +10806,13 @@
         <v>78</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>78</v>
+        <v>451</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>78</v>
@@ -10770,13 +10830,13 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>78</v>
@@ -10785,24 +10845,24 @@
         <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>78</v>
+        <v>453</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>78</v>
+        <v>455</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10810,7 +10870,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>89</v>
@@ -10822,20 +10882,18 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>393</v>
+        <v>103</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>461</v>
+        <v>104</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -10884,7 +10942,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>464</v>
+        <v>106</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -10896,27 +10954,27 @@
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>465</v>
+        <v>107</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10924,10 +10982,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>78</v>
@@ -10936,16 +10994,16 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>467</v>
+        <v>109</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>468</v>
+        <v>110</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>469</v>
+        <v>111</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10984,51 +11042,51 @@
         <v>78</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>470</v>
+        <v>115</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>471</v>
+        <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11036,33 +11094,35 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J81" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="I81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K81" t="s" s="2">
-        <v>473</v>
+        <v>135</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>474</v>
+        <v>217</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>475</v>
+        <v>218</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11098,17 +11158,19 @@
         <v>78</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AC81" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>472</v>
+        <v>222</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11126,25 +11188,23 @@
         <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>478</v>
+        <v>223</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>78</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
         <v>78</v>
       </c>
@@ -11156,27 +11216,29 @@
         <v>89</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>481</v>
+        <v>103</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>483</v>
+        <v>228</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
       </c>
@@ -11224,43 +11286,41 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>472</v>
+        <v>231</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>484</v>
+        <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>485</v>
+        <v>232</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
         <v>78</v>
       </c>
@@ -11281,16 +11341,16 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>489</v>
+        <v>353</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>483</v>
+        <v>111</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>476</v>
+        <v>354</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11340,7 +11400,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11355,20 +11415,1040 @@
         <v>101</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>78</v>
+        <v>463</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="AM83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN83" t="s" s="2">
+      <c r="AM88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AC90" s="2"/>
+      <c r="AD90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN83">
+  <autoFilter ref="A1:AN92">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11378,7 +12458,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI91">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationstatement-card.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationstatement-card.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$91</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3334" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3299" uniqueCount="506">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -285,8 +285,8 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-dosage-medstat:If one dosage element is present, it should not have a sequence number. 
-              If more than one dosage element is present, the base entry has the sequence number 1. {(dosage.count() &gt; 1 implies dosage.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage') and sequence = 1).exists()) 
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-dosage-medstat:If one dosage element is present, it SHALL NOT have a sequence number. 
+              If more than one dosage element is present, the base entry SHALL have the sequence number 1. {(dosage.count() &gt; 1 implies dosage.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage') and sequence = 1).exists()) 
          and (dosage.count() = 1 implies dosage.single().sequence.exists().not())}split-dosage-unit-must-match-base-dosage:The unit for doseAndRate of different dosages (split dosage) belonging to the same statement/request/dispense must match. {(dosage.count() &gt; 1) implies dosage.doseAndRate.dose.ofType(Quantity).code.union(dosage.doseAndRate.dose.ofType(Range).low.code).union(dosage.doseAndRate.dose.ofType(Range).high.code).union(dosage.doseAndRate.rate.numerator.code).count() = 1}</t>
   </si>
   <si>
@@ -432,7 +432,7 @@
     <t>MedicationStatement.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -464,7 +464,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -482,7 +482,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -526,7 +526,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -789,7 +789,7 @@
     <t>The last intervening author, only if different that the last medical author (see 'Document PMLC' and 'Guidance - Different Authors')</t>
   </si>
   <si>
-    <t>It represents the author of the last entry (of any kind) in the treatment. If it's the same author as the last medical author, it's not provided.</t>
+    <t>...It represents the author of the last entry (of any kind) in the treatment. If it's the same author as the last medical author, it's not provided.</t>
   </si>
   <si>
     <t>MedicationStatement.extension:authorDocument.id</t>
@@ -805,26 +805,6 @@
   </si>
   <si>
     <t>MedicationStatement.extension:authorDocument.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension:authorDocument.value[x]:valueReference</t>
-  </si>
-  <si>
-    <t>valueReference</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-practitionerrole|http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-patient|http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-related-person)
@@ -834,13 +814,13 @@
     <t>Author of the content</t>
   </si>
   <si>
-    <t>MedicationStatement.extension:authorDocument.value[x]:valueReference.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension:authorDocument.value[x]:valueReference.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension:authorDocument.value[x]:valueReference.extension:time</t>
+    <t>MedicationStatement.extension:authorDocument.value[x].id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:authorDocument.value[x].extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:authorDocument.value[x].extension:time</t>
   </si>
   <si>
     <t>time</t>
@@ -853,10 +833,10 @@
     <t>Timestamp of the authorship/data input</t>
   </si>
   <si>
-    <t>Extension to define the timestamp of the authorship/data input</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension:authorDocument.value[x]:valueReference.reference</t>
+    <t>Extension to define the timestamp of the authorship/data input. This extension has its origin from CDA and is deprecated.</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:authorDocument.value[x].reference</t>
   </si>
   <si>
     <t>MedicationStatement.extension.value[x].reference</t>
@@ -878,7 +858,7 @@
 </t>
   </si>
   <si>
-    <t>MedicationStatement.extension:authorDocument.value[x]:valueReference.type</t>
+    <t>MedicationStatement.extension:authorDocument.value[x].type</t>
   </si>
   <si>
     <t>MedicationStatement.extension.value[x].type</t>
@@ -897,13 +877,13 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
   </si>
   <si>
-    <t>MedicationStatement.extension:authorDocument.value[x]:valueReference.identifier</t>
+    <t>MedicationStatement.extension:authorDocument.value[x].identifier</t>
   </si>
   <si>
     <t>MedicationStatement.extension.value[x].identifier</t>
@@ -931,7 +911,7 @@
     <t>.identifier</t>
   </si>
   <si>
-    <t>MedicationStatement.extension:authorDocument.value[x]:valueReference.display</t>
+    <t>MedicationStatement.extension:authorDocument.value[x].display</t>
   </si>
   <si>
     <t>MedicationStatement.extension.value[x].display</t>
@@ -978,7 +958,7 @@
     <t>MedicationStatement.modifierExtension</t>
   </si>
   <si>
-    <t>All modifiers SHALL be documented in the profile, in order to be usable.</t>
+    <t>...All modifiers SHALL be documented in the profile, in order to be usable.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -987,6 +967,10 @@
     <t>MedicationStatement.identifier</t>
   </si>
   <si>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-uuid-identifier}
+</t>
+  </si>
+  <si>
     <t>MedicationStatement Identifier</t>
   </si>
   <si>
@@ -1050,7 +1034,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1092,10 +1076,10 @@
     <t>MedicationStatement.identifier.value</t>
   </si>
   <si>
-    <t>Identifier value as UUID</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>A UUID expressed as a URN according to RFC 4122 and RFC 3986.</t>
   </si>
   <si>
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
@@ -1105,6 +1089,10 @@
   </si>
   <si>
     <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+uuid-format:The value SHALL start with 'urn:uuid:' followed by a valid UUID. {matches('^urn:uuid:[0-9a-fA-F]{8}-[0-9a-fA-F]{4}-[0-9a-fA-F]{4}-[0-9a-fA-F]{4}-[0-9a-fA-F]{12}$')}</t>
   </si>
   <si>
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
@@ -1154,7 +1142,7 @@
     <t>MedicationStatement.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest|CarePlan|ServiceRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|4.0.1|CarePlan|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1170,7 +1158,7 @@
     <t>MedicationStatement.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Observation)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Observation|4.0.1)
 </t>
   </si>
   <si>
@@ -1227,7 +1215,7 @@
     <t>A coded concept indicating the reason for the status of the statement.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-status-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-status-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -1242,7 +1230,7 @@
     <t>A coded concept identifying where the medication included in the MedicationStatement is expected to be consumed or administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-statement-category</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-statement-category|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
@@ -1254,6 +1242,10 @@
     <t>MedicationStatement.medication[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
     <t>What medication was taken</t>
   </si>
   <si>
@@ -1261,6 +1253,13 @@
   </si>
   <si>
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1331,7 +1330,7 @@
     <t>MedicationStatement.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1391,7 +1390,7 @@
     <t>The person or organization that provided the information about the taking of this medication. Note: Use derivedFrom when a MedicationStatement is derived from other resources, e.g. Claim or MedicationRequest.</t>
   </si>
   <si>
-    <t>It represents the author of the last section (of type _MTP_, _PRE_, or any type of _PADV_ except _COMMENT_ that apply to an _MTP_ or _PRE_) in this treatment.</t>
+    <t>...It represents the author of the last section (of type _MTP_, _PRE_, or any type of _PADV_ except _COMMENT_ that apply to an _MTP_ or _PRE_) in this treatment.</t>
   </si>
   <si>
     <t>.participation[typeCode=INF].role[classCode=PAT, or codes for Practioner or Related Person (if PAT is the informer, then syntax for self-reported =true)</t>
@@ -1421,7 +1420,7 @@
     <t>MedicationStatement.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1444,7 +1443,7 @@
     <t>A coded concept identifying why the medication is being taken.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1474,7 +1473,7 @@
     <t>MedicationStatement.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1)
 </t>
   </si>
   <si>
@@ -1541,7 +1540,7 @@
     <t>Indicates when this particular annotation was made.</t>
   </si>
   <si>
-    <t>It represents the medical author of the entry that added the comment.</t>
+    <t>...It represents the medical author of the entry that added the comment.</t>
   </si>
   <si>
     <t>Annotation.time</t>
@@ -1579,7 +1578,7 @@
     <t>How the medication should be taken</t>
   </si>
   <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>Indicates how the medication is/was or should be taken by the patient.</t>
   </si>
   <si>
     <t>The dates included in the dosage on a Medication Statement reflect the dates for a given dose.  For example, "from November 1, 2016 to November 3, 2016, take one tablet daily and from November 4, 2016 to November 7, 2016, take two tablets daily."  It is expected that this specificity may only be populated where the patient brings in their labeled container or where the Medication Statement is derived from a MedicationRequest.</t>
@@ -1589,7 +1588,7 @@
 </t>
   </si>
   <si>
-    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
+    <t>refer dosageInstruction mapping</t>
   </si>
   <si>
     <t>MedicationStatement.dosage:baseEntry</t>
@@ -1603,10 +1602,6 @@
   </si>
   <si>
     <t>Base entry of the dosage instruction</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-dosage-4:For split dosage timing event and dose/rate are required {sequence.exists() implies (timing.repeat.when.exists() and doseAndRate.dose.exists())}</t>
   </si>
   <si>
     <t>MedicationStatement.dosage:additionalEntry</t>
@@ -1941,7 +1936,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN92"/>
+  <dimension ref="A1:AN91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1950,45 +1945,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="83.82421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="47.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.0234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.08984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.7578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="218.78125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="187.56640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="196.6875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="124.08984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="81.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="38.25" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="106.38671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.7421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="140.73046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="120.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5588,14 +5583,16 @@
         <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AC32" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>206</v>
@@ -5627,20 +5624,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>89</v>
@@ -5655,13 +5650,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>254</v>
+        <v>103</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>255</v>
+        <v>104</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5712,7 +5707,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5724,13 +5719,13 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5741,21 +5736,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5767,15 +5762,17 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5812,31 +5809,31 @@
         <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -5853,21 +5850,23 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="D35" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5879,17 +5878,15 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>109</v>
+        <v>254</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5926,16 +5923,16 @@
         <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>115</v>
@@ -5956,7 +5953,7 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5967,20 +5964,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="B36" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>259</v>
-      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>89</v>
@@ -5992,18 +5987,20 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6052,25 +6049,25 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>115</v>
+        <v>262</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -6081,10 +6078,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6092,7 +6089,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>89</v>
@@ -6107,16 +6104,16 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6142,13 +6139,13 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -6166,7 +6163,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6175,7 +6172,7 @@
         <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>101</v>
@@ -6195,10 +6192,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6221,16 +6218,16 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>125</v>
+        <v>274</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6256,13 +6253,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -6280,7 +6277,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6298,7 +6295,7 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>176</v>
+        <v>279</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6309,10 +6306,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6335,16 +6332,16 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>280</v>
+        <v>103</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6394,7 +6391,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6412,7 +6409,7 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>285</v>
+        <v>176</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6426,15 +6423,17 @@
         <v>286</v>
       </c>
       <c r="B40" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="C40" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>89</v>
@@ -6446,20 +6445,18 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>103</v>
+        <v>288</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6508,19 +6505,19 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>291</v>
+        <v>181</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
@@ -6537,20 +6534,20 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>177</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>89</v>
@@ -6565,13 +6562,13 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6640,7 +6637,7 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6651,14 +6648,12 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6667,27 +6662,29 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>298</v>
+        <v>109</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>299</v>
+        <v>179</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6736,7 +6733,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>181</v>
+        <v>296</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6765,10 +6762,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6776,28 +6773,28 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J43" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J43" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K43" t="s" s="2">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>179</v>
+        <v>299</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>301</v>
@@ -6850,7 +6847,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6862,16 +6859,16 @@
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>78</v>
+        <v>304</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6879,10 +6876,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6890,7 +6887,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>89</v>
@@ -6902,20 +6899,18 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>280</v>
+        <v>103</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>304</v>
+        <v>104</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -6964,28 +6959,28 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>303</v>
+        <v>106</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>308</v>
+        <v>107</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -6993,10 +6988,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7007,7 +7002,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -7019,13 +7014,13 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7064,37 +7059,37 @@
         <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -7105,10 +7100,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7119,28 +7114,32 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7164,63 +7163,63 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>115</v>
+        <v>314</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7237,25 +7236,25 @@
         <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>313</v>
+        <v>110</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>314</v>
+        <v>111</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7280,13 +7279,13 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7304,7 +7303,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7322,21 +7321,21 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>176</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7344,7 +7343,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>89</v>
@@ -7359,32 +7358,32 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>110</v>
+        <v>324</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>111</v>
+        <v>325</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>78</v>
+        <v>329</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>78</v>
@@ -7396,13 +7395,13 @@
         <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>324</v>
+        <v>78</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>325</v>
+        <v>78</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>78</v>
@@ -7420,7 +7419,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7438,21 +7437,21 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7475,32 +7474,30 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>333</v>
+        <v>78</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>78</v>
@@ -7536,7 +7533,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7548,27 +7545,27 @@
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>339</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7576,7 +7573,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>89</v>
@@ -7591,17 +7588,15 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>103</v>
+        <v>343</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>339</v>
+        <v>110</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7614,7 +7609,7 @@
         <v>78</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>342</v>
+        <v>78</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>78</v>
@@ -7650,7 +7645,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7668,21 +7663,21 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7705,15 +7700,17 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>110</v>
+        <v>349</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7762,7 +7759,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7780,21 +7777,21 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7805,7 +7802,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -7817,18 +7814,20 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>111</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
       </c>
@@ -7876,13 +7875,13 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
@@ -7891,24 +7890,24 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7919,7 +7918,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -7931,19 +7930,17 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -7992,7 +7989,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8007,10 +8004,10 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -8021,10 +8018,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8032,33 +8029,33 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>364</v>
+        <v>153</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8082,13 +8079,13 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>78</v>
+        <v>370</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>78</v>
+        <v>371</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8106,13 +8103,13 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
@@ -8121,13 +8118,13 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>78</v>
+        <v>374</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8135,10 +8132,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8146,31 +8143,31 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>371</v>
+        <v>110</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>372</v>
+        <v>111</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8196,37 +8193,37 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Z55" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF55" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AA55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
@@ -8235,13 +8232,13 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8249,10 +8246,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8263,7 +8260,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8272,7 +8269,7 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>201</v>
@@ -8283,9 +8280,7 @@
       <c r="M56" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N56" t="s" s="2">
-        <v>380</v>
-      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8310,37 +8305,37 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
@@ -8349,13 +8344,13 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>383</v>
+        <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>384</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8363,10 +8358,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8374,7 +8369,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>89</v>
@@ -8389,15 +8384,17 @@
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>201</v>
+        <v>387</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>110</v>
+        <v>388</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8422,34 +8419,32 @@
         <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AC57" s="2"/>
+      <c r="AD57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="Z57" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>89</v>
@@ -8461,38 +8456,40 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>78</v>
+        <v>393</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="D58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>78</v>
@@ -8501,16 +8498,16 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>248</v>
+        <v>398</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8548,17 +8545,19 @@
         <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AC58" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>89</v>
@@ -8573,13 +8572,13 @@
         <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8587,26 +8586,24 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>78</v>
@@ -8615,17 +8612,15 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8674,7 +8669,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>89</v>
@@ -8689,24 +8684,24 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>78</v>
+        <v>407</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8714,7 +8709,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>89</v>
@@ -8726,16 +8721,16 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>402</v>
+        <v>103</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>403</v>
+        <v>110</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>404</v>
+        <v>111</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8786,10 +8781,10 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>401</v>
+        <v>106</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>89</v>
@@ -8798,19 +8793,19 @@
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>405</v>
+        <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>406</v>
+        <v>107</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>407</v>
+        <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>408</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" hidden="true">
@@ -8829,7 +8824,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8841,7 +8836,7 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>110</v>
@@ -8886,37 +8881,37 @@
         <v>78</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -8938,10 +8933,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -8950,18 +8945,20 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>110</v>
+        <v>259</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -8998,37 +8995,37 @@
         <v>78</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>115</v>
+        <v>262</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -9050,7 +9047,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>89</v>
@@ -9065,16 +9062,16 @@
         <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9100,13 +9097,13 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -9124,7 +9121,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9133,7 +9130,7 @@
         <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>101</v>
@@ -9179,16 +9176,16 @@
         <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>125</v>
+        <v>274</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9214,13 +9211,13 @@
         <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
@@ -9238,7 +9235,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9256,7 +9253,7 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>176</v>
+        <v>279</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
@@ -9293,16 +9290,16 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>280</v>
+        <v>103</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9352,7 +9349,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9370,7 +9367,7 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>285</v>
+        <v>176</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9407,16 +9404,16 @@
         <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>103</v>
+        <v>415</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>288</v>
+        <v>349</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>289</v>
+        <v>111</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9466,7 +9463,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>291</v>
+        <v>414</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9481,10 +9478,10 @@
         <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>78</v>
+        <v>416</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>176</v>
+        <v>417</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -9495,10 +9492,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9521,16 +9518,16 @@
         <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>353</v>
+        <v>420</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>111</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>354</v>
+        <v>421</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9580,7 +9577,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9595,13 +9592,13 @@
         <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>78</v>
+        <v>424</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9609,10 +9606,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9620,7 +9617,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>89</v>
@@ -9635,17 +9632,15 @@
         <v>90</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -9694,7 +9689,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9709,13 +9704,13 @@
         <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>423</v>
+        <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -9723,10 +9718,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9746,18 +9741,20 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>427</v>
+        <v>248</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -9806,7 +9803,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9824,10 +9821,10 @@
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -9835,10 +9832,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9846,7 +9843,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>89</v>
@@ -9861,17 +9858,15 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>254</v>
+        <v>103</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>433</v>
+        <v>104</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -9920,7 +9915,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>432</v>
+        <v>106</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -9932,16 +9927,16 @@
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>436</v>
+        <v>107</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>437</v>
+        <v>78</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -9956,14 +9951,14 @@
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>78</v>
@@ -9975,15 +9970,17 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10020,31 +10017,31 @@
         <v>78</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
@@ -10068,14 +10065,14 @@
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -10084,19 +10081,19 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10134,37 +10131,37 @@
         <v>78</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>115</v>
+        <v>262</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
@@ -10186,7 +10183,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>89</v>
@@ -10201,16 +10198,16 @@
         <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10236,13 +10233,13 @@
         <v>78</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>78</v>
@@ -10260,7 +10257,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10269,7 +10266,7 @@
         <v>89</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>101</v>
@@ -10315,16 +10312,16 @@
         <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>125</v>
+        <v>274</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10350,13 +10347,13 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>78</v>
@@ -10374,7 +10371,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10392,7 +10389,7 @@
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>176</v>
+        <v>279</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>78</v>
@@ -10429,16 +10426,16 @@
         <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>280</v>
+        <v>103</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10488,7 +10485,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10506,7 +10503,7 @@
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>285</v>
+        <v>176</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
@@ -10531,7 +10528,7 @@
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>78</v>
@@ -10540,19 +10537,19 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>103</v>
+        <v>444</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>288</v>
+        <v>349</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>289</v>
+        <v>111</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10602,13 +10599,13 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>291</v>
+        <v>443</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>78</v>
@@ -10620,7 +10617,7 @@
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>176</v>
+        <v>445</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>78</v>
@@ -10631,10 +10628,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10657,16 +10654,16 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>445</v>
+        <v>201</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>353</v>
+        <v>447</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>111</v>
+        <v>448</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>354</v>
+        <v>449</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10692,13 +10689,13 @@
         <v>78</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>78</v>
+        <v>450</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>78</v>
+        <v>451</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>78</v>
@@ -10716,7 +10713,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -10731,13 +10728,13 @@
         <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>78</v>
+        <v>454</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -10745,10 +10742,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10759,7 +10756,7 @@
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
@@ -10771,17 +10768,15 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>448</v>
+        <v>104</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>78</v>
@@ -10806,13 +10801,13 @@
         <v>78</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>452</v>
+        <v>78</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>78</v>
@@ -10830,28 +10825,28 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>447</v>
+        <v>106</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>453</v>
+        <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>454</v>
+        <v>107</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>455</v>
+        <v>78</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -10873,7 +10868,7 @@
         <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
@@ -10885,13 +10880,13 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10930,37 +10925,37 @@
         <v>78</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
@@ -10994,19 +10989,23 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
       </c>
@@ -11042,19 +11041,19 @@
         <v>78</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>115</v>
+        <v>222</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11066,22 +11065,22 @@
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>78</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>458</v>
       </c>
@@ -11094,13 +11093,13 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>78</v>
@@ -11109,19 +11108,19 @@
         <v>90</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>217</v>
+        <v>459</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>78</v>
@@ -11170,13 +11169,13 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>78</v>
@@ -11188,21 +11187,21 @@
         <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11210,35 +11209,33 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>103</v>
+        <v>461</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>460</v>
+        <v>349</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>78</v>
       </c>
@@ -11286,13 +11283,13 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>231</v>
+        <v>460</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>78</v>
@@ -11301,24 +11298,24 @@
         <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>78</v>
+        <v>462</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>232</v>
+        <v>463</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>78</v>
+        <v>454</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>233</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11341,17 +11338,15 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>353</v>
+        <v>466</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>78</v>
@@ -11400,7 +11395,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11415,13 +11410,13 @@
         <v>101</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>455</v>
+        <v>78</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -11429,10 +11424,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11443,7 +11438,7 @@
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>78</v>
@@ -11455,13 +11450,13 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>466</v>
+        <v>103</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>467</v>
+        <v>110</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>468</v>
+        <v>111</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11512,25 +11507,25 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>465</v>
+        <v>106</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>469</v>
+        <v>78</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>470</v>
+        <v>107</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>78</v>
@@ -11555,7 +11550,7 @@
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>78</v>
@@ -11567,7 +11562,7 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>110</v>
@@ -11612,37 +11607,37 @@
         <v>78</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>78</v>
@@ -11664,10 +11659,10 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>78</v>
@@ -11676,18 +11671,20 @@
         <v>78</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>109</v>
+        <v>473</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>110</v>
+        <v>474</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>78</v>
@@ -11724,51 +11721,51 @@
         <v>78</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>115</v>
+        <v>477</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>78</v>
+        <v>478</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11791,16 +11788,16 @@
         <v>90</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>474</v>
+        <v>426</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11850,7 +11847,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -11868,7 +11865,7 @@
         <v>78</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>78</v>
@@ -11879,10 +11876,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11905,17 +11902,15 @@
         <v>90</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>427</v>
+        <v>486</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>78</v>
@@ -11964,10 +11959,10 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>89</v>
@@ -11982,7 +11977,7 @@
         <v>78</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>78</v>
@@ -11993,10 +11988,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12007,7 +12002,7 @@
         <v>89</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>78</v>
@@ -12016,18 +12011,20 @@
         <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>78</v>
@@ -12064,25 +12061,23 @@
         <v>78</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="AC89" s="2"/>
       <c r="AD89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>78</v>
+        <v>392</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>78</v>
@@ -12094,23 +12089,25 @@
         <v>78</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B90" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="AM89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="C90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="D90" t="s" s="2">
         <v>78</v>
       </c>
@@ -12119,7 +12116,7 @@
         <v>89</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>90</v>
@@ -12131,16 +12128,16 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12178,17 +12175,19 @@
         <v>78</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AC90" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12206,7 +12205,7 @@
         <v>78</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>78</v>
@@ -12215,28 +12214,28 @@
         <v>78</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>78</v>
@@ -12245,16 +12244,16 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="M91" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N91" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12304,7 +12303,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -12316,149 +12315,33 @@
         <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>503</v>
+        <v>101</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="D92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN92" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN92">
-    <filterColumn colId="6">
+  <autoFilter ref="A1:AN91">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI91">
+  <conditionalFormatting sqref="A2:AI90">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
